--- a/externalFile/RegistrationPractice.xlsx
+++ b/externalFile/RegistrationPractice.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.garza\git\AutomationTest\externalFile\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11595" windowHeight="9255" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11595" windowHeight="9255" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WebElementList" sheetId="1" r:id="rId1"/>
     <sheet name="RegistrationLog" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="97">
   <si>
     <t>Registration  button</t>
   </si>
@@ -300,13 +304,25 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Your message was sent successfully. Thanks.</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Test Subject</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +343,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -350,13 +372,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -637,7 +660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C24"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -911,11 +934,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,9 +956,11 @@
     <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="23.85546875" customWidth="1"/>
     <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -975,8 +1000,14 @@
       <c r="M1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -1017,7 +1048,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -1058,7 +1089,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -1099,7 +1130,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -1139,20 +1170,22 @@
       <c r="M5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="O5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F12" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
